--- a/doco/2021 Team Competition Schedule.xlsx
+++ b/doco/2021 Team Competition Schedule.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendantwhite/code/caliad/doco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C8654-5099-D24D-B76D-FAB86976BB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB91B9-A035-AB4F-ACCB-7C36CEF1981F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="15760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 State Championships" sheetId="6" r:id="rId1"/>
     <sheet name="2021 Tinies" sheetId="7" r:id="rId2"/>
-    <sheet name="2021 State Champs" sheetId="4" r:id="rId3"/>
-    <sheet name="2021 May Comps" sheetId="5" r:id="rId4"/>
+    <sheet name="2021 May Comps" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="150">
   <si>
     <t>2021 CASA State Championship Schedule</t>
   </si>
@@ -412,21 +411,6 @@
   </si>
   <si>
     <t>Inclusive Demonstration</t>
-  </si>
-  <si>
-    <t>Draft 1 - Subject to change</t>
-  </si>
-  <si>
-    <t>Sub Junior Championship</t>
-  </si>
-  <si>
-    <t>Junior Championship</t>
-  </si>
-  <si>
-    <t>Intermediate Championship</t>
-  </si>
-  <si>
-    <t>Senior Championship Teams 1 &amp; 2</t>
   </si>
   <si>
     <t>2021 CASA May Competition Schedule</t>
@@ -508,11 +492,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-C09]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +597,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -624,11 +608,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1076,7 +1062,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,16 +1097,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1247,6 +1223,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,57 +1238,51 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2132,11 +2108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA98DC2-7735-4B5A-B4CD-F6A107DB0797}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
@@ -2145,642 +2121,642 @@
     <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="30">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>44407</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="57">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
         <v>44408</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="59"/>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="57">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53">
         <v>44409</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="30">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>44410</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="30">
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>44411</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="30">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>44412</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="30">
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>44413</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="30">
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>44414</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="57">
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53">
         <v>44415</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="58"/>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="59"/>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="57">
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53">
         <v>44416</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="58"/>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="59"/>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="30">
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>44417</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="30">
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>44418</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="30">
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
         <v>44419</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="30">
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
         <v>44420</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="30">
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
         <v>44421</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="57">
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53">
         <v>44422</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A34" s="59"/>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="57">
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53">
         <v>44423</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="33" t="s">
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="58"/>
+    <row r="37" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="59"/>
+    <row r="38" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="30">
+    <row r="39" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>44424</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="30">
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
         <v>44425</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="30">
+    <row r="41" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
         <v>44426</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A42" s="30">
+    <row r="42" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
         <v>44427</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="30">
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26">
         <v>44428</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A44" s="30">
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
         <v>44429</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="57">
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53">
         <v>44430</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A46" s="59"/>
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="30">
+    <row r="47" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26">
         <v>44434</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="30">
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26">
         <v>44435</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A49" s="30">
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
         <v>44436</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A50" s="30">
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26">
         <v>44437</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.25" customHeight="1">
+    <row r="51" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="20.25" customHeight="1">
+    <row r="52" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="20.25" customHeight="1">
+    <row r="53" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="20.25" customHeight="1">
+    <row r="54" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="20.25" customHeight="1">
+    <row r="55" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="20.25" customHeight="1">
+    <row r="56" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="20.25" customHeight="1">
+    <row r="57" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="20.25" customHeight="1">
+    <row r="58" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="20.25" customHeight="1">
+    <row r="59" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="20.25" customHeight="1">
+    <row r="60" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="20.25" customHeight="1">
+    <row r="61" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="20.25" customHeight="1">
+    <row r="62" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="20.25" customHeight="1">
+    <row r="63" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="20.25" customHeight="1">
+    <row r="64" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="4:4" ht="20.25" customHeight="1">
+    <row r="65" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="4:4" ht="20.25" customHeight="1">
+    <row r="66" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="4:4" ht="20.25" customHeight="1">
+    <row r="67" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="20.25" customHeight="1">
+    <row r="68" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="4:4" ht="20.25" customHeight="1">
+    <row r="69" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:4" ht="20.25" customHeight="1">
+    <row r="70" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="4:4" ht="20.25" customHeight="1">
+    <row r="71" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="4:4" ht="20.25" customHeight="1">
+    <row r="72" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4" ht="20.25" customHeight="1">
+    <row r="73" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" ht="20.25" customHeight="1">
+    <row r="74" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" ht="20.25" customHeight="1">
+    <row r="75" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" ht="20.25" customHeight="1">
+    <row r="76" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" ht="20.25" customHeight="1">
+    <row r="77" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" ht="20.25" customHeight="1">
+    <row r="78" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" ht="20.25" customHeight="1">
+    <row r="79" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" ht="20.25" customHeight="1">
+    <row r="80" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4" ht="20.25" customHeight="1">
+    <row r="81" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4" ht="20.25" customHeight="1">
+    <row r="82" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4" ht="20.25" customHeight="1">
+    <row r="83" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4" ht="20.25" customHeight="1">
+    <row r="84" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4" ht="20.25" customHeight="1">
+    <row r="85" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4" ht="20.25" customHeight="1">
+    <row r="86" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" ht="20.25" customHeight="1">
+    <row r="87" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="4:4" ht="20.25" customHeight="1">
+    <row r="88" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="4:4" ht="20.25" customHeight="1">
+    <row r="89" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="4:4" ht="20.25" customHeight="1">
+    <row r="90" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="4:4" ht="20.25" customHeight="1">
+    <row r="91" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="4:4" ht="20.25" customHeight="1">
+    <row r="92" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="4:4" ht="20.25" customHeight="1">
+    <row r="93" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="4:4" ht="20.25" customHeight="1">
+    <row r="94" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="4:4" ht="20.25" customHeight="1">
+    <row r="95" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:E7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2792,1519 +2768,1594 @@
   <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J7"/>
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="53" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="49" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="52" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="48" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="65" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="34">
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:10" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
         <v>44407</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34">
+      <c r="C11" s="32"/>
+      <c r="D11" s="30">
         <v>44408</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="D12" s="66" t="s">
+      <c r="B12" s="68"/>
+      <c r="D12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="E12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="62"/>
+      <c r="D13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="D14" s="68" t="s">
+      <c r="B14" s="62"/>
+      <c r="D14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="69"/>
-    </row>
-    <row r="15" spans="1:10" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="68" t="s">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="62"/>
+      <c r="D15" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="69"/>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="68" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="69"/>
-    </row>
-    <row r="18" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="68" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="69"/>
-    </row>
-    <row r="19" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="42">
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
         <v>44408</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="38">
         <v>44408</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="D21" s="66" t="s">
+      <c r="B21" s="68"/>
+      <c r="D21" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="D22" s="68" t="s">
+      <c r="B22" s="62"/>
+      <c r="D22" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="D23" s="68" t="s">
+      <c r="B23" s="62"/>
+      <c r="D23" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="62"/>
+      <c r="D24" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="68" t="s">
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="68" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="69"/>
-    </row>
-    <row r="27" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="68" t="s">
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="69"/>
-    </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="42">
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
         <v>44409</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="38">
         <v>44409</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="D30" s="66" t="s">
+      <c r="B30" s="68"/>
+      <c r="D30" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="67"/>
-    </row>
-    <row r="31" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="68" t="s">
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="D31" s="68" t="s">
+      <c r="B31" s="62"/>
+      <c r="D31" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="69"/>
-    </row>
-    <row r="32" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="68" t="s">
+      <c r="E31" s="62"/>
+    </row>
+    <row r="32" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="D32" s="68" t="s">
+      <c r="B32" s="62"/>
+      <c r="D32" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="69"/>
-    </row>
-    <row r="33" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="E32" s="62"/>
+    </row>
+    <row r="33" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="D33" s="68" t="s">
+      <c r="B33" s="62"/>
+      <c r="D33" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="69"/>
-    </row>
-    <row r="34" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A34" s="68" t="s">
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="68" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="69"/>
-    </row>
-    <row r="35" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="68" t="s">
+      <c r="E34" s="62"/>
+    </row>
+    <row r="35" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="68" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="69"/>
-    </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A36" s="68" t="s">
+      <c r="E35" s="62"/>
+    </row>
+    <row r="36" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="68" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="69"/>
-    </row>
-    <row r="37" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="42">
+      <c r="E36" s="62"/>
+    </row>
+    <row r="37" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38">
         <v>44416</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="38">
         <v>44415</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="66" t="s">
+    <row r="39" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="D39" s="66" t="s">
+      <c r="B39" s="68"/>
+      <c r="D39" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="67"/>
-    </row>
-    <row r="40" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="68" t="s">
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="D40" s="68" t="s">
+      <c r="B40" s="62"/>
+      <c r="D40" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="69"/>
-    </row>
-    <row r="41" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="68" t="s">
+      <c r="E40" s="62"/>
+    </row>
+    <row r="41" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="D41" s="68" t="s">
+      <c r="B41" s="62"/>
+      <c r="D41" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="69"/>
-    </row>
-    <row r="42" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A42" s="68" t="s">
+      <c r="E41" s="62"/>
+    </row>
+    <row r="42" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="D42" s="68" t="s">
+      <c r="B42" s="62"/>
+      <c r="D42" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="69"/>
-    </row>
-    <row r="43" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="68" t="s">
+      <c r="E42" s="62"/>
+    </row>
+    <row r="43" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="68" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="69"/>
-    </row>
-    <row r="44" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A44" s="68" t="s">
+      <c r="E43" s="62"/>
+    </row>
+    <row r="44" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="68" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="69"/>
-    </row>
-    <row r="45" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="68" t="s">
+      <c r="E44" s="62"/>
+    </row>
+    <row r="45" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="68" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="69"/>
-    </row>
-    <row r="46" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="42">
+      <c r="E45" s="62"/>
+    </row>
+    <row r="46" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38">
         <v>44423</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="38">
         <v>44416</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A48" s="66" t="s">
+    <row r="48" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="D48" s="66" t="s">
+      <c r="B48" s="68"/>
+      <c r="D48" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="67"/>
-    </row>
-    <row r="49" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A49" s="68" t="s">
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="D49" s="68" t="s">
+      <c r="B49" s="62"/>
+      <c r="D49" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="69"/>
-    </row>
-    <row r="50" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A50" s="68" t="s">
+      <c r="E49" s="62"/>
+    </row>
+    <row r="50" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="D50" s="68" t="s">
+      <c r="B50" s="62"/>
+      <c r="D50" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="69"/>
-    </row>
-    <row r="51" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A51" s="68" t="s">
+      <c r="E50" s="62"/>
+    </row>
+    <row r="51" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="D51" s="68" t="s">
+      <c r="B51" s="62"/>
+      <c r="D51" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="69"/>
-    </row>
-    <row r="52" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A52" s="68" t="s">
+      <c r="E51" s="62"/>
+    </row>
+    <row r="52" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="68" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="69"/>
-    </row>
-    <row r="53" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A53" s="68" t="s">
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="68" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="69"/>
-    </row>
-    <row r="54" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A54" s="68" t="s">
+      <c r="E53" s="62"/>
+    </row>
+    <row r="54" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="68" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="69"/>
-    </row>
-    <row r="55" spans="1:5" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="46"/>
-    </row>
-    <row r="56" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A56" s="42">
+      <c r="E54" s="62"/>
+    </row>
+    <row r="55" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="38">
         <v>44423</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="38">
         <v>44423</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A57" s="66" t="s">
+    <row r="57" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="D57" s="66" t="s">
+      <c r="B57" s="68"/>
+      <c r="D57" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="67"/>
-    </row>
-    <row r="58" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A58" s="68" t="s">
+      <c r="E57" s="68"/>
+    </row>
+    <row r="58" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="D58" s="68" t="s">
+      <c r="B58" s="62"/>
+      <c r="D58" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="69"/>
-    </row>
-    <row r="59" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A59" s="68" t="s">
+      <c r="E58" s="62"/>
+    </row>
+    <row r="59" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="D59" s="68" t="s">
+      <c r="B59" s="62"/>
+      <c r="D59" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="69"/>
-    </row>
-    <row r="60" spans="1:5" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A60" s="68" t="s">
+      <c r="E59" s="62"/>
+    </row>
+    <row r="60" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="69"/>
-      <c r="D60" s="70" t="s">
+      <c r="B60" s="62"/>
+      <c r="D60" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="71"/>
-    </row>
-    <row r="61" spans="1:5" s="38" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A61" s="68" t="s">
+      <c r="E60" s="70"/>
+    </row>
+    <row r="61" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="D61" s="72" t="s">
+      <c r="B61" s="62"/>
+      <c r="D61" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="73"/>
-    </row>
-    <row r="62" spans="1:5" s="38" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="68" t="s">
+      <c r="E61" s="72"/>
+    </row>
+    <row r="62" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="69"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
-    </row>
-    <row r="63" spans="1:5" s="38" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A63" s="68" t="s">
+      <c r="B62" s="62"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+    </row>
+    <row r="63" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="D63" s="74" t="s">
+      <c r="B63" s="62"/>
+      <c r="D63" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="75"/>
-    </row>
-    <row r="64" spans="1:5" s="38" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="49"/>
-    </row>
-    <row r="65" spans="1:10" s="39" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="50"/>
+      <c r="E63" s="74"/>
+    </row>
+    <row r="64" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" spans="1:10" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
       <c r="B65" s="1"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
-    </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="50"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="48"/>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="52"/>
-    </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="50"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="48"/>
+    </row>
+    <row r="67" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="52"/>
-    </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="50"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="48"/>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="52"/>
-      <c r="J68" s="55"/>
-    </row>
-    <row r="69" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="50"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
+      <c r="J68" s="51"/>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="52"/>
-    </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="50"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="52"/>
-    </row>
-    <row r="71" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="50"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="52"/>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="50"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="52"/>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="50"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="48"/>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="52"/>
-    </row>
-    <row r="74" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="50"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="48"/>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="46"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="52"/>
-    </row>
-    <row r="75" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="50"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="48"/>
+    </row>
+    <row r="75" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="46"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="52"/>
-    </row>
-    <row r="76" spans="1:10" ht="12.75" customHeight="1">
-      <c r="E76" s="54"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="E77" s="54"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="E78" s="54"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="E79" s="54"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="E80" s="54"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="E81" s="54"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="E82" s="54"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="E83" s="54"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="E84" s="54"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="E85" s="54"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="E86" s="54"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="E87" s="54"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="48"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="50"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E77" s="50"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E78" s="50"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E79" s="50"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E80" s="50"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E81" s="50"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E82" s="50"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E83" s="50"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E84" s="50"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E85" s="50"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E86" s="50"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E87" s="50"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="C88" s="2"/>
-      <c r="E88" s="54"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="50"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="C89" s="2"/>
-      <c r="E89" s="54"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="50"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="C90" s="2"/>
-      <c r="E90" s="54"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="50"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="C91" s="2"/>
-      <c r="E91" s="54"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" s="50"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="C92" s="2"/>
-      <c r="E92" s="54"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92" s="50"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="C93" s="2"/>
-      <c r="E93" s="54"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="50"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="C94" s="2"/>
-      <c r="E94" s="54"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="50"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="C95" s="2"/>
-      <c r="E95" s="54"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="50"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="C96" s="2"/>
-      <c r="E96" s="54"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96" s="50"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="C97" s="2"/>
-      <c r="E97" s="54"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="50"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="C98" s="2"/>
-      <c r="E98" s="54"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="50"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="C99" s="2"/>
-      <c r="E99" s="54"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="50"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="C100" s="2"/>
-      <c r="E100" s="54"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="50"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="C101" s="2"/>
-      <c r="E101" s="54"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="E101" s="50"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="C102" s="2"/>
-      <c r="E102" s="54"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="E102" s="50"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="C103" s="2"/>
-      <c r="E103" s="54"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="E103" s="50"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="C104" s="2"/>
-      <c r="E104" s="54"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="E104" s="50"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="C105" s="2"/>
-      <c r="E105" s="54"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="E105" s="50"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="C106" s="2"/>
-      <c r="E106" s="54"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="E106" s="50"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="C107" s="2"/>
-      <c r="E107" s="54"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="E107" s="50"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="C108" s="2"/>
-      <c r="E108" s="54"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" s="50"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="C109" s="2"/>
-      <c r="E109" s="54"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="E109" s="50"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="C110" s="2"/>
-      <c r="E110" s="54"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="E110" s="50"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="C111" s="2"/>
-      <c r="E111" s="54"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="E111" s="50"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="C112" s="2"/>
-      <c r="E112" s="54"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="E112" s="50"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="C113" s="2"/>
-      <c r="E113" s="54"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="E113" s="50"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="C114" s="2"/>
-      <c r="E114" s="54"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="E114" s="50"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="C115" s="2"/>
-      <c r="E115" s="54"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="E115" s="50"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="C116" s="2"/>
-      <c r="E116" s="54"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="E116" s="50"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="C117" s="2"/>
-      <c r="E117" s="54"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" s="50"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="C118" s="2"/>
-      <c r="E118" s="54"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="E118" s="50"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="C119" s="2"/>
-      <c r="E119" s="54"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="E119" s="50"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="C120" s="2"/>
-      <c r="E120" s="54"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="E120" s="50"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="C121" s="2"/>
-      <c r="E121" s="54"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="E121" s="50"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="C122" s="2"/>
-      <c r="E122" s="54"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="E122" s="50"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="C123" s="2"/>
-      <c r="E123" s="54"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="E123" s="50"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="C124" s="2"/>
-      <c r="E124" s="54"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="E124" s="50"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="C256" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A1:E7"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D13:E13"/>
@@ -4321,81 +4372,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:E7"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4403,564 +4379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D106"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="26.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="14">
-        <v>44408</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A13" s="14">
-        <v>44409</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A16" s="14">
-        <v>44410</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="14">
-        <v>44411</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="14">
-        <v>44412</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A19" s="14">
-        <v>44413</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="14">
-        <v>44414</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A21" s="14">
-        <v>44415</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A24" s="14">
-        <v>44416</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A27" s="14">
-        <v>44417</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A28" s="14">
-        <v>44418</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A29" s="14">
-        <v>44419</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A30" s="14">
-        <v>44420</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A31" s="14">
-        <v>44421</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="14">
-        <v>44422</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="14">
-        <v>44423</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A38" s="14">
-        <v>44424</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A39" s="14">
-        <v>44425</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A40" s="14">
-        <v>44426</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A41" s="14">
-        <v>44427</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A42" s="14">
-        <v>44428</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A43" s="14">
-        <v>44429</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A46" s="14">
-        <v>44430</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A49" s="14">
-        <v>44431</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A50" s="14">
-        <v>44432</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A51" s="14">
-        <v>44433</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A52" s="14">
-        <v>44434</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A53" s="14">
-        <v>44435</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A54" s="14">
-        <v>44436</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A57" s="14">
-        <v>44437</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23" customHeight="1">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31" footer="0.31"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="16383" man="1"/>
-  </rowBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF32C88-0B08-4BF7-A413-7D495789FE23}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" style="2" customWidth="1"/>
@@ -4974,349 +4400,349 @@
     <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="46.25" customHeight="1">
-      <c r="A8" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" ht="25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="22">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>44326</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="24">
+        <v>13</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="24">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>44327</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="24">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>44328</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="24">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>44329</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="24">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>44330</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C15" s="24">
         <v>13</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="28">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="22">
-        <v>44327</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="28">
-        <v>27</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="22">
-        <v>44328</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="28">
-        <v>17</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="22">
-        <v>44329</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="28">
-        <v>14</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="22">
-        <v>44330</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="28">
-        <v>13</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <v>15</v>
       </c>
       <c r="F15" s="13"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="26">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>44333</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="24">
+        <v>19</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>44334</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24">
+        <v>18</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="24">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>44335</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="24">
+        <v>9</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="24">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>44336</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="24">
+        <v>10</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="28">
-        <v>19</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="22">
-        <v>44334</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="E20" s="24">
         <v>18</v>
       </c>
-      <c r="D18" s="29" t="s">
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>44337</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="28">
+      <c r="C21" s="24">
         <v>15</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="22">
-        <v>44335</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="28">
-        <v>9</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="D21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="24">
         <v>18</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="22">
-        <v>44336</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="28">
-        <v>10</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="25">
-        <v>44337</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="28">
-        <v>15</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="H22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="26">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>44340</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="24">
+        <v>18</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>44341</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="25">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>44342</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="24">
+        <v>22</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>44343</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C26" s="24">
+        <v>15</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>44344</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="24">
+        <v>14</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="24">
         <v>18</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="22">
-        <v>44341</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="28">
-        <v>9</v>
-      </c>
-      <c r="D24" s="29" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="E24" s="29">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="22">
-        <v>44342</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="28">
-        <v>22</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="22">
-        <v>44343</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="28">
-        <v>15</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="22">
-        <v>44344</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="28">
-        <v>14</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/doco/2021 Team Competition Schedule.xlsx
+++ b/doco/2021 Team Competition Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendantwhite/code/caliad/doco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB91B9-A035-AB4F-ACCB-7C36CEF1981F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33795B-491C-474B-A703-7FC5198C7939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 State Championships" sheetId="6" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Competitive Tinies Session F</t>
   </si>
   <si>
-    <t>Junior Division 1 &amp; Division 2 Team 2</t>
-  </si>
-  <si>
     <t>Junior Division 5</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>UPDATED 25 April 2021</t>
+  </si>
+  <si>
+    <t>Junior Division 1 Team 2 &amp; Division 2 Team 2</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1068,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,20 +1229,29 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1244,6 +1259,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,45 +1291,20 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -2108,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA98DC2-7735-4B5A-B4CD-F6A107DB0797}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2122,69 +2137,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
@@ -2447,7 +2462,7 @@
       <c r="A35" s="53">
         <v>44423</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -2456,7 +2471,7 @@
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="29" t="s">
         <v>35</v>
       </c>
@@ -2480,14 +2495,14 @@
       </c>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26">
+      <c r="A39" s="80">
         <v>44424</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>38</v>
+      <c r="C39" s="82" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2509,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2520,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,10 +2554,10 @@
         <v>44429</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,16 +2568,16 @@
         <v>4</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="55"/>
       <c r="B46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2573,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,10 +2607,10 @@
         <v>44436</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,10 +2618,10 @@
         <v>44437</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2746,17 +2761,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:E7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2782,209 +2797,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>44407</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="30">
         <v>44408</v>
       </c>
       <c r="E11" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="D12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="D12" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="B13" s="65"/>
+      <c r="D13" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="D13" s="61" t="s">
+      <c r="E13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="B14" s="65"/>
+      <c r="D14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="D14" s="61" t="s">
+      <c r="E14" s="65"/>
+    </row>
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="62"/>
-    </row>
-    <row r="15" spans="1:10" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="B15" s="65"/>
+      <c r="D15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="D15" s="61" t="s">
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:10" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="62"/>
-    </row>
-    <row r="16" spans="1:10" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="61" t="s">
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="62"/>
-    </row>
-    <row r="17" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="62"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="34"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -2994,87 +3009,87 @@
         <v>44408</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="38">
         <v>44408</v>
       </c>
       <c r="E20" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="D21" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="63"/>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="D21" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="B22" s="65"/>
+      <c r="D22" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="D22" s="61" t="s">
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="62"/>
-    </row>
-    <row r="23" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="B23" s="65"/>
+      <c r="D23" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="D23" s="61" t="s">
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="62"/>
-    </row>
-    <row r="24" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+      <c r="B24" s="65"/>
+      <c r="D24" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="D24" s="61" t="s">
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="62"/>
-    </row>
-    <row r="25" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="61" t="s">
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="61" t="s">
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="62"/>
-    </row>
-    <row r="27" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
@@ -3088,87 +3103,87 @@
         <v>44409</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="38">
         <v>44409</v>
       </c>
       <c r="E29" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="D30" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="D30" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="68"/>
-    </row>
-    <row r="31" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="B31" s="65"/>
+      <c r="D31" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="D31" s="61" t="s">
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="62"/>
-    </row>
-    <row r="32" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="B32" s="65"/>
+      <c r="D32" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="D32" s="61" t="s">
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="D33" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="62"/>
-    </row>
-    <row r="33" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="D33" s="61" t="s">
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="62"/>
-    </row>
-    <row r="34" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="61" t="s">
+      <c r="E34" s="65"/>
+    </row>
+    <row r="35" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="62"/>
-    </row>
-    <row r="35" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="61" t="s">
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="62"/>
-    </row>
-    <row r="36" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="62"/>
+      <c r="E36" s="65"/>
     </row>
     <row r="37" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
@@ -3182,87 +3197,87 @@
         <v>44416</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="38">
         <v>44415</v>
       </c>
       <c r="E38" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="D39" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="63"/>
+    </row>
+    <row r="40" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="64" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="68"/>
-      <c r="D39" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="68"/>
-    </row>
-    <row r="40" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
+      <c r="B40" s="65"/>
+      <c r="D40" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="65"/>
+    </row>
+    <row r="41" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="D40" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="62"/>
-    </row>
-    <row r="41" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
+      <c r="B41" s="65"/>
+      <c r="D41" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="D41" s="61" t="s">
+      <c r="E41" s="65"/>
+    </row>
+    <row r="42" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="62"/>
-    </row>
-    <row r="42" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="62"/>
-      <c r="D42" s="61" t="s">
+      <c r="E42" s="65"/>
+    </row>
+    <row r="43" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="62"/>
-    </row>
-    <row r="43" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
+      <c r="B43" s="65"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="61" t="s">
+      <c r="E43" s="65"/>
+    </row>
+    <row r="44" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="62"/>
-    </row>
-    <row r="44" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="61" t="s">
+      <c r="E44" s="65"/>
+    </row>
+    <row r="45" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="62"/>
-    </row>
-    <row r="45" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="62"/>
+      <c r="E45" s="65"/>
     </row>
     <row r="46" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
@@ -3276,87 +3291,87 @@
         <v>44423</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="38">
         <v>44416</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="D48" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="63"/>
+    </row>
+    <row r="49" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="D49" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="65"/>
+    </row>
+    <row r="50" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="64" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="68"/>
-      <c r="D48" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="68"/>
-    </row>
-    <row r="49" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="62"/>
-      <c r="D49" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="62"/>
-    </row>
-    <row r="50" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
+      <c r="B50" s="65"/>
+      <c r="D50" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="65"/>
+    </row>
+    <row r="51" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="D50" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="62"/>
-    </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
+      <c r="B51" s="65"/>
+      <c r="D51" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="D51" s="61" t="s">
+      <c r="E51" s="65"/>
+    </row>
+    <row r="52" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="65"/>
+    </row>
+    <row r="53" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="62"/>
-    </row>
-    <row r="52" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="61" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="65"/>
+    </row>
+    <row r="54" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="62"/>
-    </row>
-    <row r="54" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="62"/>
+      <c r="E54" s="65"/>
     </row>
     <row r="55" spans="1:5" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="43"/>
@@ -3370,82 +3385,82 @@
         <v>44423</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="38">
         <v>44423</v>
       </c>
       <c r="E56" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="63"/>
+      <c r="D57" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="68"/>
-      <c r="D57" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="B58" s="65"/>
+      <c r="D58" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="D58" s="61" t="s">
+      <c r="E58" s="65"/>
+    </row>
+    <row r="59" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="62"/>
-    </row>
-    <row r="59" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="61" t="s">
+      <c r="B59" s="65"/>
+      <c r="D59" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="D59" s="61" t="s">
+      <c r="E59" s="65"/>
+    </row>
+    <row r="60" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="62"/>
-    </row>
-    <row r="60" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
+      <c r="B60" s="65"/>
+      <c r="D60" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="D60" s="69" t="s">
+      <c r="E60" s="67"/>
+    </row>
+    <row r="61" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="65"/>
+      <c r="D61" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="70"/>
-    </row>
-    <row r="61" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="62"/>
-      <c r="D61" s="71" t="s">
+      <c r="E61" s="69"/>
+    </row>
+    <row r="62" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="72"/>
-    </row>
-    <row r="62" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="61" t="s">
+      <c r="B62" s="65"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="73"/>
+    </row>
+    <row r="63" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-    </row>
-    <row r="63" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="61" t="s">
+      <c r="B63" s="65"/>
+      <c r="D63" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="D63" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="74"/>
+      <c r="E63" s="71"/>
     </row>
     <row r="64" spans="1:5" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="43"/>
@@ -4281,65 +4296,22 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F1:J7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:E7"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -4356,22 +4328,65 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F1:J7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4451,7 +4466,7 @@
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -4459,20 +4474,20 @@
       <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -4482,13 +4497,13 @@
         <v>44326</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="24">
         <v>13</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="24">
         <v>21</v>
@@ -4500,7 +4515,7 @@
         <v>44327</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="24">
         <v>27</v>
@@ -4514,7 +4529,7 @@
         <v>44328</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="24">
         <v>17</v>
@@ -4533,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="24">
         <v>21</v>
@@ -4544,7 +4559,7 @@
         <v>44330</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="24">
         <v>13</v>
@@ -4570,7 +4585,7 @@
         <v>44333</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="24">
         <v>19</v>
@@ -4590,7 +4605,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="24">
         <v>15</v>
@@ -4602,13 +4617,13 @@
         <v>44335</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="24">
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="24">
         <v>18</v>
@@ -4620,13 +4635,13 @@
         <v>44336</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="24">
         <v>10</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="24">
         <v>18</v>
@@ -4637,7 +4652,7 @@
         <v>44337</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="24">
         <v>15</v>
@@ -4663,13 +4678,13 @@
         <v>44340</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="24">
         <v>18</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="24">
         <v>18</v>
@@ -4680,13 +4695,13 @@
         <v>44341</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="24">
         <v>9</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="25">
         <v>20</v>
@@ -4698,7 +4713,7 @@
         <v>44342</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="24">
         <v>22</v>
@@ -4711,13 +4726,13 @@
         <v>44343</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="24">
         <v>15</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="24">
         <v>23</v>
@@ -4728,7 +4743,7 @@
         <v>44344</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="24">
         <v>14</v>
@@ -4742,7 +4757,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
